--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_06_end.xlsx
@@ -984,7 +984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gambino"]   I believe it with all my heart, "Mr. Emperor."
+    <t xml:space="preserve">[name="Gambino"]   I believe it with all my heart, 'Mr. Emperor.'
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gambino"]   Lost? Give up? Hah. Are you really THE "Texas?"
+    <t xml:space="preserve">[name="Gambino"]   Lost? Give up? Hah. Are you really THE 'Texas?'
 </t>
   </si>
   <si>
@@ -1308,11 +1308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Texas"]   It's where we get the word "Sicilian" in Siracusan.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Texas"]   But these days... the word has kind of a different meaning... it's pretty rare for a Siracusan to actually call herself a "Sicilian."
+    <t xml:space="preserve">[name="Texas"]   It's where we get the word 'Sicilian' in Siracusan.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Texas"]   But these days... the word has kind of a different meaning... it's pretty rare for a Siracusan to actually call herself a 'Sicilian.'
 </t>
   </si>
   <si>
